--- a/raw_data/US_PLAYERS_8_18_16.xlsx
+++ b/raw_data/US_PLAYERS_8_18_16.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rubyh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rubyh\Documents\R\projects\Milestone_4\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9137745E-F58D-43CD-8746-F5FB1BB1050C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D625D962-D33D-42AB-BEA4-E09DF896D789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4AE5302A-6CDA-4808-8806-70D5E7C213C4}"/>
   </bookViews>
@@ -30,54 +30,15 @@
     <t>Players</t>
   </si>
   <si>
-    <t>Points Total</t>
-  </si>
-  <si>
-    <t>Points BP</t>
-  </si>
-  <si>
-    <t>Points W-L</t>
-  </si>
-  <si>
-    <t>Serve Total</t>
-  </si>
-  <si>
-    <t>Serve Error</t>
-  </si>
-  <si>
-    <t>Serve Pts</t>
-  </si>
-  <si>
-    <t>ReceptionTotal</t>
-  </si>
-  <si>
-    <t>Reception Error</t>
-  </si>
-  <si>
     <t>Pos%</t>
   </si>
   <si>
     <t>Exc%</t>
   </si>
   <si>
-    <t>Attack Total</t>
-  </si>
-  <si>
-    <t>Attack Error</t>
-  </si>
-  <si>
-    <t>Attack Block</t>
-  </si>
-  <si>
-    <t>Attack Pts</t>
-  </si>
-  <si>
     <t>Pts%</t>
   </si>
   <si>
-    <t>BK Pts</t>
-  </si>
-  <si>
     <t>Jersey Number</t>
   </si>
   <si>
@@ -115,6 +76,45 @@
   </si>
   <si>
     <t>Lowe, Karsta</t>
+  </si>
+  <si>
+    <t>Points_Total</t>
+  </si>
+  <si>
+    <t>Points_BP</t>
+  </si>
+  <si>
+    <t>W-L</t>
+  </si>
+  <si>
+    <t>Serve_Total</t>
+  </si>
+  <si>
+    <t>Serve_Error</t>
+  </si>
+  <si>
+    <t>Serve_Pts</t>
+  </si>
+  <si>
+    <t>Reception_Total</t>
+  </si>
+  <si>
+    <t>Reception_Error</t>
+  </si>
+  <si>
+    <t>Attack_Total</t>
+  </si>
+  <si>
+    <t>Attack_Error</t>
+  </si>
+  <si>
+    <t>Attack_Block</t>
+  </si>
+  <si>
+    <t>Attack_Pts</t>
+  </si>
+  <si>
+    <t>BK_Pts</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,58 +480,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>-4</v>
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>-2</v>
@@ -588,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -599,7 +599,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>13</v>
@@ -631,7 +631,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -695,7 +695,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -736,7 +736,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -774,7 +774,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -821,7 +821,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -912,7 +912,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>14</v>
